--- a/cricketdata.xlsx
+++ b/cricketdata.xlsx
@@ -5,38 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\btram\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\btrams\Desktop\coding\cric\cricketagain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36CC0D3-ED1C-455E-BD76-C6EB044B0DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C099512-2C03-43EE-A0FB-240A3F1501E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="1980" windowWidth="27105" windowHeight="11385" xr2:uid="{80A89B72-454C-4139-8175-BECD78605E51}"/>
+    <workbookView xWindow="9636" yWindow="2244" windowWidth="8640" windowHeight="9456" activeTab="1" xr2:uid="{80A89B72-454C-4139-8175-BECD78605E51}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="44">
   <si>
     <t>match_no</t>
   </si>
@@ -138,6 +128,36 @@
   </si>
   <si>
     <t>Ikram Alikhil</t>
+  </si>
+  <si>
+    <t>Tamim Iqbal</t>
+  </si>
+  <si>
+    <t>N Pooran</t>
+  </si>
+  <si>
+    <t>RR Pant</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>S Samarawickrama</t>
+  </si>
+  <si>
+    <t>HDRL Thirimanne</t>
+  </si>
+  <si>
+    <t>M Bhanuka</t>
+  </si>
+  <si>
+    <t>Afg</t>
+  </si>
+  <si>
+    <t>Rashid Khan</t>
+  </si>
+  <si>
+    <t>KA Pollard</t>
   </si>
 </sst>
 </file>
@@ -490,21 +510,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5B4675-528C-43A7-B724-DFCAF6616E58}">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -532,7 +552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -546,7 +566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -560,7 +580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -574,7 +594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -588,7 +608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -602,7 +622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -616,7 +636,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -630,7 +650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -644,7 +664,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -658,7 +678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -672,7 +692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6</v>
       </c>
@@ -686,7 +706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>7</v>
       </c>
@@ -700,7 +720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7</v>
       </c>
@@ -714,7 +734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
@@ -728,7 +748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8</v>
       </c>
@@ -742,7 +762,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>9</v>
       </c>
@@ -756,7 +776,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>9</v>
       </c>
@@ -770,7 +790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10</v>
       </c>
@@ -784,7 +804,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10</v>
       </c>
@@ -798,7 +818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>12</v>
       </c>
@@ -812,7 +832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>12</v>
       </c>
@@ -826,7 +846,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>13</v>
       </c>
@@ -840,7 +860,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>13</v>
       </c>
@@ -854,7 +874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>14</v>
       </c>
@@ -868,7 +888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>14</v>
       </c>
@@ -882,7 +902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>15</v>
       </c>
@@ -896,7 +916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>15</v>
       </c>
@@ -910,7 +930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>17</v>
       </c>
@@ -924,7 +944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>17</v>
       </c>
@@ -938,7 +958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>19</v>
       </c>
@@ -952,7 +972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>19</v>
       </c>
@@ -966,7 +986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>20</v>
       </c>
@@ -980,7 +1000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>20</v>
       </c>
@@ -994,7 +1014,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>21</v>
       </c>
@@ -1008,7 +1028,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>21</v>
       </c>
@@ -1022,7 +1042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>22</v>
       </c>
@@ -1036,7 +1056,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>22</v>
       </c>
@@ -1050,7 +1070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>23</v>
       </c>
@@ -1064,7 +1084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>23</v>
       </c>
@@ -1078,7 +1098,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>24</v>
       </c>
@@ -1092,7 +1112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>24</v>
       </c>
@@ -1106,7 +1126,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>25</v>
       </c>
@@ -1120,7 +1140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>25</v>
       </c>
@@ -1134,7 +1154,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>26</v>
       </c>
@@ -1148,7 +1168,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>26</v>
       </c>
@@ -1162,7 +1182,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>27</v>
       </c>
@@ -1176,7 +1196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>27</v>
       </c>
@@ -1190,7 +1210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>28</v>
       </c>
@@ -1204,7 +1224,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>28</v>
       </c>
@@ -1218,7 +1238,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>29</v>
       </c>
@@ -1232,7 +1252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>29</v>
       </c>
@@ -1246,7 +1266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>30</v>
       </c>
@@ -1260,7 +1280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>30</v>
       </c>
@@ -1274,7 +1294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>31</v>
       </c>
@@ -1288,7 +1308,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>31</v>
       </c>
@@ -1302,7 +1322,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>32</v>
       </c>
@@ -1316,7 +1336,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>32</v>
       </c>
@@ -1330,7 +1350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>33</v>
       </c>
@@ -1344,7 +1364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>33</v>
       </c>
@@ -1358,7 +1378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>34</v>
       </c>
@@ -1372,7 +1392,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>34</v>
       </c>
@@ -1386,7 +1406,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>35</v>
       </c>
@@ -1400,7 +1420,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>35</v>
       </c>
@@ -1414,7 +1434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>36</v>
       </c>
@@ -1428,7 +1448,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>36</v>
       </c>
@@ -1442,7 +1462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>37</v>
       </c>
@@ -1456,7 +1476,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>37</v>
       </c>
@@ -1470,7 +1490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>38</v>
       </c>
@@ -1484,7 +1504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>38</v>
       </c>
@@ -1498,7 +1518,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>39</v>
       </c>
@@ -1512,7 +1532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>39</v>
       </c>
@@ -1526,7 +1546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>40</v>
       </c>
@@ -1540,7 +1560,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>40</v>
       </c>
@@ -1554,7 +1574,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>41</v>
       </c>
@@ -1568,7 +1588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>41</v>
       </c>
@@ -1582,7 +1602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>42</v>
       </c>
@@ -1596,7 +1616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>42</v>
       </c>
@@ -1610,7 +1630,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>43</v>
       </c>
@@ -1624,7 +1644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>43</v>
       </c>
@@ -1638,7 +1658,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>44</v>
       </c>
@@ -1652,7 +1672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>44</v>
       </c>
@@ -1666,7 +1686,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>45</v>
       </c>
@@ -1680,7 +1700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>45</v>
       </c>
@@ -1694,7 +1714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>46</v>
       </c>
@@ -1708,7 +1728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>46</v>
       </c>
@@ -1722,7 +1742,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>47</v>
       </c>
@@ -1736,7 +1756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>47</v>
       </c>
@@ -1750,7 +1770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>48</v>
       </c>
@@ -1764,7 +1784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>48</v>
       </c>
@@ -1776,6 +1796,427 @@
       </c>
       <c r="D91" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>2</v>
+      </c>
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>3</v>
+      </c>
+      <c r="B98" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101" t="s">
+        <v>31</v>
+      </c>
+      <c r="D101" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102" t="s">
+        <v>30</v>
+      </c>
+      <c r="C102" t="s">
+        <v>31</v>
+      </c>
+      <c r="D102" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>3</v>
+      </c>
+      <c r="B105" t="s">
+        <v>30</v>
+      </c>
+      <c r="C105" t="s">
+        <v>31</v>
+      </c>
+      <c r="D105" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CDF34F-5428-4736-B4C9-27F80E27F1B3}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/cricketdata.xlsx
+++ b/cricketdata.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\btrams\Desktop\coding\cric\cricketagain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C099512-2C03-43EE-A0FB-240A3F1501E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D890ED-1769-4949-BFAA-3928665AE1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9636" yWindow="2244" windowWidth="8640" windowHeight="9456" activeTab="1" xr2:uid="{80A89B72-454C-4139-8175-BECD78605E51}"/>
+    <workbookView xWindow="12720" yWindow="1668" windowWidth="8640" windowHeight="9456" firstSheet="1" activeTab="2" xr2:uid="{80A89B72-454C-4139-8175-BECD78605E51}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
+    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="54">
   <si>
     <t>match_no</t>
   </si>
@@ -158,6 +159,36 @@
   </si>
   <si>
     <t>KA Pollard</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>A Balbirnie</t>
+  </si>
+  <si>
+    <t>L Tucker</t>
+  </si>
+  <si>
+    <t>KL Rahul</t>
+  </si>
+  <si>
+    <t>JM Bairstow</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>CJ Chibhabha</t>
+  </si>
+  <si>
+    <t>R Mutumbami</t>
+  </si>
+  <si>
+    <t>SC Williams</t>
+  </si>
+  <si>
+    <t>Liton Das</t>
   </si>
 </sst>
 </file>
@@ -512,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5B4675-528C-43A7-B724-DFCAF6616E58}">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1973,13 +2004,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CDF34F-5428-4736-B4C9-27F80E27F1B3}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2219,6 +2255,805 @@
         <v>36</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" t="s">
+        <v>52</v>
+      </c>
+      <c r="D68" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F3E2EB-86BA-43E8-B38D-B574D0780606}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cricketdata.xlsx
+++ b/cricketdata.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\btrams\Desktop\coding\cric\cricketagain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D890ED-1769-4949-BFAA-3928665AE1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D378279F-DCF9-46BF-8077-8CCBB3B89BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="1668" windowWidth="8640" windowHeight="9456" firstSheet="1" activeTab="2" xr2:uid="{80A89B72-454C-4139-8175-BECD78605E51}"/>
+    <workbookView xWindow="14436" yWindow="2556" windowWidth="8640" windowHeight="9456" firstSheet="2" activeTab="3" xr2:uid="{80A89B72-454C-4139-8175-BECD78605E51}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
+    <sheet name="Arkusz4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="66">
   <si>
     <t>match_no</t>
   </si>
@@ -189,6 +190,42 @@
   </si>
   <si>
     <t>Liton Das</t>
+  </si>
+  <si>
+    <t>Babar Azam</t>
+  </si>
+  <si>
+    <t>Mohammad Rizwan</t>
+  </si>
+  <si>
+    <t>BRM Taylor</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>Ahmed Raza</t>
+  </si>
+  <si>
+    <t>V Aravind</t>
+  </si>
+  <si>
+    <t>Rahmanullah Gurbaz</t>
+  </si>
+  <si>
+    <t>Asghar Stanikzai</t>
+  </si>
+  <si>
+    <t>JN Mohammed</t>
+  </si>
+  <si>
+    <t>J Da Silva</t>
+  </si>
+  <si>
+    <t>JN Hamilton</t>
+  </si>
+  <si>
+    <t>LD Chandimal</t>
   </si>
 </sst>
 </file>
@@ -2006,7 +2043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8CDF34F-5428-4736-B4C9-27F80E27F1B3}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -2880,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F3E2EB-86BA-43E8-B38D-B574D0780606}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2989,6 +3026,9 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -3000,6 +3040,9 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
@@ -3011,6 +3054,9 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -3022,6 +3068,9 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -3033,6 +3082,9 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -3044,6 +3096,9 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
@@ -3052,6 +3107,685 @@
       </c>
       <c r="D14" t="s">
         <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54432BB4-F518-40F4-AF6F-4116939A04FA}">
+  <dimension ref="A1:D54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:C63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/cricketdata.xlsx
+++ b/cricketdata.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\btrams\Desktop\coding\cric\cricketagain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bartek\Desktop\projectfolder\cricketagain\cricketagain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768F4253-BDB1-42B9-ACF9-D74B04B7A45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270D229B-DB3B-41C0-9978-CFC7B38E66C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5784" yWindow="1620" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="0" windowWidth="15435" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Arkusz1!$A$1:$C$116</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">master!$A$1:$F$349</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="209">
   <si>
     <t>series</t>
   </si>
@@ -338,13 +340,325 @@
   </si>
   <si>
     <t>T Marumani</t>
+  </si>
+  <si>
+    <t>AUS_PAK</t>
+  </si>
+  <si>
+    <t>NZ_IRE</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>WC_1</t>
+  </si>
+  <si>
+    <t>WC_2</t>
+  </si>
+  <si>
+    <t>WC_3</t>
+  </si>
+  <si>
+    <t>WC_4</t>
+  </si>
+  <si>
+    <t>WC_5</t>
+  </si>
+  <si>
+    <t>WC_6</t>
+  </si>
+  <si>
+    <t>WC_7</t>
+  </si>
+  <si>
+    <t>WC_8</t>
+  </si>
+  <si>
+    <t>WC_9</t>
+  </si>
+  <si>
+    <t>WC_10</t>
+  </si>
+  <si>
+    <t>WC_11</t>
+  </si>
+  <si>
+    <t>WC_12</t>
+  </si>
+  <si>
+    <t>WC_13</t>
+  </si>
+  <si>
+    <t>WC_14</t>
+  </si>
+  <si>
+    <t>WC_15</t>
+  </si>
+  <si>
+    <t>WC_16</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>IND_WI</t>
+  </si>
+  <si>
+    <t>AFG_WI</t>
+  </si>
+  <si>
+    <t>AUS_IND</t>
+  </si>
+  <si>
+    <t>AUS_SA</t>
+  </si>
+  <si>
+    <t>ENG_SA</t>
+  </si>
+  <si>
+    <t>IND_NZ</t>
+  </si>
+  <si>
+    <t>IRE_WI</t>
+  </si>
+  <si>
+    <t>NZ_AUS</t>
+  </si>
+  <si>
+    <t>SL_PAK</t>
+  </si>
+  <si>
+    <t>WI_IND</t>
+  </si>
+  <si>
+    <t>WI_SL</t>
+  </si>
+  <si>
+    <t>ZIM_BAN</t>
+  </si>
+  <si>
+    <t>AUS_ENG</t>
+  </si>
+  <si>
+    <t>IRE_ENG</t>
+  </si>
+  <si>
+    <t>BAN_NZ</t>
+  </si>
+  <si>
+    <t>ENG_IND</t>
+  </si>
+  <si>
+    <t>IND_AUS</t>
+  </si>
+  <si>
+    <t>IRE_AFG</t>
+  </si>
+  <si>
+    <t>IRE_UAE</t>
+  </si>
+  <si>
+    <t>SL_WI</t>
+  </si>
+  <si>
+    <t>WI_BAN</t>
+  </si>
+  <si>
+    <t>ZIM_PAK</t>
+  </si>
+  <si>
+    <t>AUS_WI</t>
+  </si>
+  <si>
+    <t>IND_SL</t>
+  </si>
+  <si>
+    <t>IRE_NED</t>
+  </si>
+  <si>
+    <t>PAK_ENG</t>
+  </si>
+  <si>
+    <t>PAK_SA</t>
+  </si>
+  <si>
+    <t>SA_IRE</t>
+  </si>
+  <si>
+    <t>SA_SL</t>
+  </si>
+  <si>
+    <t>SL_BAN</t>
+  </si>
+  <si>
+    <t>SL_ENG</t>
+  </si>
+  <si>
+    <t>ZIM_IRE</t>
+  </si>
+  <si>
+    <t>AFG_BAN</t>
+  </si>
+  <si>
+    <t>BAN_SA</t>
+  </si>
+  <si>
+    <t>IND_SA</t>
+  </si>
+  <si>
+    <t>NED_NZ</t>
+  </si>
+  <si>
+    <t>NED_SA</t>
+  </si>
+  <si>
+    <t>ZIM_SL</t>
+  </si>
+  <si>
+    <t>WI_NED</t>
+  </si>
+  <si>
+    <t>AFG_ZIM</t>
+  </si>
+  <si>
+    <t>WI_PAK</t>
+  </si>
+  <si>
+    <t>AUS_SL</t>
+  </si>
+  <si>
+    <t>ENG_NED</t>
+  </si>
+  <si>
+    <t>IND_ENG</t>
+  </si>
+  <si>
+    <t>BAN_WI</t>
+  </si>
+  <si>
+    <t>SA_ENG</t>
+  </si>
+  <si>
+    <t>NZ_SCO</t>
+  </si>
+  <si>
+    <t>PAK_NED</t>
+  </si>
+  <si>
+    <t>NZ_WI</t>
+  </si>
+  <si>
+    <t>IND_ZIM</t>
+  </si>
+  <si>
+    <t>ZIM_AUS</t>
+  </si>
+  <si>
+    <t>SA_IND</t>
+  </si>
+  <si>
+    <t>ENG_AUS</t>
+  </si>
+  <si>
+    <t>AFG_SL</t>
+  </si>
+  <si>
+    <t>IND_BAN</t>
+  </si>
+  <si>
+    <t>NZ_PAK</t>
+  </si>
+  <si>
+    <t>SL_IND</t>
+  </si>
+  <si>
+    <t>NZ_IND</t>
+  </si>
+  <si>
+    <t>ENG_BAN</t>
+  </si>
+  <si>
+    <t>WI_SA</t>
+  </si>
+  <si>
+    <t>IRE_BAN</t>
+  </si>
+  <si>
+    <t>NED_ZIM</t>
+  </si>
+  <si>
+    <t>SL_NZ</t>
+  </si>
+  <si>
+    <t>WI_UAE</t>
+  </si>
+  <si>
+    <t>AFG_PAK</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>NZ_ENG</t>
+  </si>
+  <si>
+    <t>CWCQ1</t>
+  </si>
+  <si>
+    <t>CWCQ2</t>
+  </si>
+  <si>
+    <t>CWCQ3</t>
+  </si>
+  <si>
+    <t>CWCQ4</t>
+  </si>
+  <si>
+    <t>CWCQ5</t>
+  </si>
+  <si>
+    <t>CWCQ6</t>
+  </si>
+  <si>
+    <t>CWCQ7</t>
+  </si>
+  <si>
+    <t>CWCQ8</t>
+  </si>
+  <si>
+    <t>CWCQ9</t>
+  </si>
+  <si>
+    <t>CWCQ10</t>
+  </si>
+  <si>
+    <t>CWCQ11</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>MH Cross</t>
+  </si>
+  <si>
+    <t>RD Berrington</t>
+  </si>
+  <si>
+    <t>D Cleaver</t>
+  </si>
+  <si>
+    <t>MJ Santner</t>
+  </si>
+  <si>
+    <t>Mohammad Haris</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,13 +684,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -433,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -471,6 +797,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -783,25 +1113,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H355"/>
+  <dimension ref="A1:H457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="E356" sqref="E356"/>
+    <sheetView tabSelected="1" topLeftCell="A431" workbookViewId="0">
+      <selection activeCell="E460" sqref="E460"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -827,7 +1157,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3">
         <v>1</v>
       </c>
@@ -844,7 +1174,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -861,7 +1191,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -878,7 +1208,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -895,7 +1225,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -912,7 +1242,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>3</v>
       </c>
@@ -929,7 +1259,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>4</v>
       </c>
@@ -946,7 +1276,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>4</v>
       </c>
@@ -963,7 +1293,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>5</v>
       </c>
@@ -980,7 +1310,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>5</v>
       </c>
@@ -997,7 +1327,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>6</v>
       </c>
@@ -1014,7 +1344,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -1031,7 +1361,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -1051,7 +1381,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -1071,7 +1401,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -1091,7 +1421,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -1111,7 +1441,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -1131,7 +1461,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -1151,7 +1481,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>10</v>
       </c>
@@ -1168,7 +1498,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>10</v>
       </c>
@@ -1185,7 +1515,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>12</v>
       </c>
@@ -1202,7 +1532,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>12</v>
       </c>
@@ -1219,7 +1549,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>13</v>
       </c>
@@ -1236,7 +1566,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>13</v>
       </c>
@@ -1253,7 +1583,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>14</v>
       </c>
@@ -1270,7 +1600,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>14</v>
       </c>
@@ -1287,7 +1617,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>15</v>
       </c>
@@ -1304,7 +1634,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>15</v>
       </c>
@@ -1321,7 +1651,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>17</v>
       </c>
@@ -1338,7 +1668,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>17</v>
       </c>
@@ -1355,7 +1685,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>19</v>
       </c>
@@ -1372,7 +1702,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>19</v>
       </c>
@@ -1389,7 +1719,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>20</v>
       </c>
@@ -1406,7 +1736,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>20</v>
       </c>
@@ -1423,7 +1753,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>21</v>
       </c>
@@ -1440,7 +1770,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>21</v>
       </c>
@@ -1457,7 +1787,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>22</v>
       </c>
@@ -1474,7 +1804,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>22</v>
       </c>
@@ -1491,7 +1821,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>23</v>
       </c>
@@ -1508,7 +1838,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3">
         <v>23</v>
       </c>
@@ -1525,7 +1855,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
         <v>24</v>
       </c>
@@ -1542,7 +1872,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>24</v>
       </c>
@@ -1559,7 +1889,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
         <v>25</v>
       </c>
@@ -1576,7 +1906,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
         <v>25</v>
       </c>
@@ -1593,7 +1923,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
         <v>26</v>
       </c>
@@ -1610,7 +1940,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
         <v>26</v>
       </c>
@@ -1627,7 +1957,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
         <v>27</v>
       </c>
@@ -1644,7 +1974,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
         <v>27</v>
       </c>
@@ -1661,7 +1991,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <v>28</v>
       </c>
@@ -1678,7 +2008,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <v>28</v>
       </c>
@@ -1695,7 +2025,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
         <v>29</v>
       </c>
@@ -1712,7 +2042,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="53" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
         <v>29</v>
       </c>
@@ -1729,7 +2059,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
         <v>30</v>
       </c>
@@ -1746,7 +2076,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
         <v>30</v>
       </c>
@@ -1763,7 +2093,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
         <v>31</v>
       </c>
@@ -1780,7 +2110,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
         <v>31</v>
       </c>
@@ -1797,7 +2127,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="58" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
         <v>32</v>
       </c>
@@ -1814,7 +2144,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="59" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
         <v>32</v>
       </c>
@@ -1831,7 +2161,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="60" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
         <v>33</v>
       </c>
@@ -1848,7 +2178,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="61" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
         <v>33</v>
       </c>
@@ -1865,7 +2195,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="62" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
         <v>34</v>
       </c>
@@ -1882,7 +2212,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="63" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
         <v>34</v>
       </c>
@@ -1899,7 +2229,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="64" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
         <v>35</v>
       </c>
@@ -1916,7 +2246,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
         <v>35</v>
       </c>
@@ -1933,7 +2263,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
         <v>36</v>
       </c>
@@ -1950,7 +2280,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
         <v>36</v>
       </c>
@@ -1967,7 +2297,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
         <v>37</v>
       </c>
@@ -1984,7 +2314,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
         <v>37</v>
       </c>
@@ -2001,7 +2331,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="3">
         <v>38</v>
       </c>
@@ -2018,7 +2348,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="3">
         <v>38</v>
       </c>
@@ -2035,7 +2365,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="72" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="3">
         <v>39</v>
       </c>
@@ -2052,7 +2382,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="3">
         <v>39</v>
       </c>
@@ -2069,7 +2399,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="3">
         <v>40</v>
       </c>
@@ -2086,7 +2416,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="3">
         <v>40</v>
       </c>
@@ -2103,7 +2433,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="76" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="3">
         <v>41</v>
       </c>
@@ -2120,7 +2450,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="77" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
         <v>41</v>
       </c>
@@ -2137,7 +2467,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="78" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="3">
         <v>42</v>
       </c>
@@ -2154,7 +2484,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="3">
         <v>42</v>
       </c>
@@ -2171,7 +2501,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
         <v>43</v>
       </c>
@@ -2188,7 +2518,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
         <v>43</v>
       </c>
@@ -2205,7 +2535,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="3">
         <v>44</v>
       </c>
@@ -2222,7 +2552,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="3">
         <v>44</v>
       </c>
@@ -2239,7 +2569,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="3">
         <v>45</v>
       </c>
@@ -2256,7 +2586,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="3">
         <v>45</v>
       </c>
@@ -2273,7 +2603,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
         <v>46</v>
       </c>
@@ -2290,7 +2620,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
         <v>46</v>
       </c>
@@ -2307,7 +2637,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
         <v>47</v>
       </c>
@@ -2324,7 +2654,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3">
         <v>47</v>
       </c>
@@ -2341,7 +2671,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3">
         <v>48</v>
       </c>
@@ -2358,7 +2688,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3">
         <v>48</v>
       </c>
@@ -2375,7 +2705,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>36</v>
       </c>
@@ -2401,7 +2731,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>36</v>
       </c>
@@ -2421,7 +2751,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>36</v>
       </c>
@@ -2441,7 +2771,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>36</v>
       </c>
@@ -2461,7 +2791,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>36</v>
       </c>
@@ -2481,7 +2811,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>36</v>
       </c>
@@ -2501,7 +2831,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="3">
         <v>1</v>
       </c>
@@ -2518,7 +2848,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="3">
         <v>1</v>
       </c>
@@ -2535,7 +2865,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="3">
         <v>2</v>
       </c>
@@ -2552,7 +2882,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="3">
         <v>2</v>
       </c>
@@ -2569,7 +2899,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="3">
         <v>3</v>
       </c>
@@ -2586,7 +2916,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="3">
         <v>3</v>
       </c>
@@ -2603,7 +2933,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="3">
         <v>2</v>
       </c>
@@ -2620,7 +2950,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="3">
         <v>2</v>
       </c>
@@ -2637,7 +2967,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="3">
         <v>3</v>
       </c>
@@ -2654,7 +2984,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="3">
         <v>3</v>
       </c>
@@ -2671,7 +3001,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="3">
         <v>1</v>
       </c>
@@ -2688,7 +3018,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="3">
         <v>1</v>
       </c>
@@ -2705,7 +3035,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="3">
         <v>2</v>
       </c>
@@ -2722,7 +3052,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="3">
         <v>2</v>
       </c>
@@ -2739,7 +3069,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="3">
         <v>3</v>
       </c>
@@ -2756,7 +3086,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="113" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="3">
         <v>3</v>
       </c>
@@ -2773,7 +3103,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="3">
         <v>1</v>
       </c>
@@ -2790,7 +3120,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="3">
         <v>1</v>
       </c>
@@ -2807,7 +3137,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="3">
         <v>2</v>
       </c>
@@ -2824,7 +3154,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="3">
         <v>2</v>
       </c>
@@ -2841,7 +3171,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="3">
         <v>3</v>
       </c>
@@ -2858,7 +3188,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="3">
         <v>3</v>
       </c>
@@ -2875,7 +3205,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="3">
         <v>1</v>
       </c>
@@ -2892,7 +3222,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="121" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="3">
         <v>1</v>
       </c>
@@ -2909,7 +3239,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="3">
         <v>2</v>
       </c>
@@ -2926,7 +3256,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="3">
         <v>2</v>
       </c>
@@ -2943,7 +3273,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="124" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="3">
         <v>3</v>
       </c>
@@ -2960,7 +3290,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="125" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="3">
         <v>3</v>
       </c>
@@ -2977,7 +3307,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="126" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="3">
         <v>1</v>
       </c>
@@ -2994,7 +3324,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="127" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="3">
         <v>1</v>
       </c>
@@ -3011,7 +3341,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="128" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="3">
         <v>2</v>
       </c>
@@ -3028,7 +3358,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="129" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="3">
         <v>2</v>
       </c>
@@ -3045,7 +3375,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="3">
         <v>3</v>
       </c>
@@ -3062,7 +3392,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="3">
         <v>3</v>
       </c>
@@ -3079,7 +3409,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="3">
         <v>1</v>
       </c>
@@ -3096,7 +3426,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="3">
         <v>1</v>
       </c>
@@ -3113,7 +3443,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="3">
         <v>2</v>
       </c>
@@ -3130,7 +3460,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="135" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="3">
         <v>2</v>
       </c>
@@ -3147,7 +3477,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="136" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="3">
         <v>3</v>
       </c>
@@ -3164,7 +3494,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="137" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="3">
         <v>3</v>
       </c>
@@ -3181,7 +3511,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="138" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="3">
         <v>1</v>
       </c>
@@ -3198,7 +3528,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="139" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="3">
         <v>1</v>
       </c>
@@ -3215,7 +3545,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="140" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="3">
         <v>2</v>
       </c>
@@ -3232,7 +3562,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="3">
         <v>2</v>
       </c>
@@ -3249,7 +3579,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="142" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="3">
         <v>3</v>
       </c>
@@ -3266,7 +3596,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="143" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="3">
         <v>3</v>
       </c>
@@ -3283,7 +3613,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="3">
         <v>1</v>
       </c>
@@ -3300,7 +3630,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="145" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="3">
         <v>1</v>
       </c>
@@ -3317,7 +3647,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="146" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="3">
         <v>2</v>
       </c>
@@ -3334,7 +3664,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="147" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="3">
         <v>2</v>
       </c>
@@ -3351,7 +3681,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="148" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="3">
         <v>3</v>
       </c>
@@ -3368,7 +3698,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="149" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="3">
         <v>3</v>
       </c>
@@ -3385,7 +3715,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="3">
         <v>1</v>
       </c>
@@ -3402,7 +3732,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="151" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="3">
         <v>1</v>
       </c>
@@ -3419,7 +3749,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="152" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="3">
         <v>2</v>
       </c>
@@ -3436,7 +3766,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="153" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="3">
         <v>2</v>
       </c>
@@ -3453,7 +3783,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="154" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="3">
         <v>3</v>
       </c>
@@ -3470,7 +3800,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="155" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="3">
         <v>3</v>
       </c>
@@ -3487,7 +3817,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="156" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="3">
         <v>1</v>
       </c>
@@ -3504,7 +3834,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="157" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="3">
         <v>1</v>
       </c>
@@ -3521,7 +3851,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="158" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="3">
         <v>2</v>
       </c>
@@ -3538,7 +3868,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="159" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="3">
         <v>2</v>
       </c>
@@ -3555,7 +3885,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="160" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="3">
         <v>3</v>
       </c>
@@ -3572,7 +3902,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="161" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="3">
         <v>3</v>
       </c>
@@ -3589,7 +3919,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="162" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="3">
         <v>1</v>
       </c>
@@ -3606,7 +3936,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="163" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="3">
         <v>1</v>
       </c>
@@ -3623,7 +3953,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="164" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="3">
         <v>1</v>
       </c>
@@ -3640,7 +3970,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="165" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="3">
         <v>1</v>
       </c>
@@ -3657,7 +3987,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="166" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="3">
         <v>2</v>
       </c>
@@ -3674,7 +4004,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="167" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="3">
         <v>2</v>
       </c>
@@ -3691,7 +4021,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="168" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="3">
         <v>3</v>
       </c>
@@ -3708,7 +4038,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="169" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="3">
         <v>3</v>
       </c>
@@ -3725,7 +4055,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="170" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="3">
         <v>1</v>
       </c>
@@ -3742,7 +4072,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="171" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="3">
         <v>1</v>
       </c>
@@ -3759,7 +4089,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="172" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="3">
         <v>2</v>
       </c>
@@ -3776,7 +4106,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="173" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="3">
         <v>2</v>
       </c>
@@ -3793,7 +4123,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="174" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="3">
         <v>3</v>
       </c>
@@ -3810,7 +4140,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="175" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="3">
         <v>3</v>
       </c>
@@ -3827,7 +4157,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="176" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="3">
         <v>1</v>
       </c>
@@ -3844,7 +4174,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="177" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="3">
         <v>1</v>
       </c>
@@ -3861,7 +4191,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="178" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="3">
         <v>2</v>
       </c>
@@ -3878,7 +4208,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="179" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="3">
         <v>2</v>
       </c>
@@ -3895,7 +4225,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="180" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="3">
         <v>3</v>
       </c>
@@ -3912,7 +4242,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="181" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="3">
         <v>3</v>
       </c>
@@ -3929,7 +4259,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="182" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="3">
         <v>1</v>
       </c>
@@ -3946,7 +4276,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="183" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="3">
         <v>1</v>
       </c>
@@ -3963,7 +4293,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="184" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="3">
         <v>2</v>
       </c>
@@ -3980,7 +4310,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="185" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="3">
         <v>2</v>
       </c>
@@ -3997,7 +4327,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="186" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="3">
         <v>3</v>
       </c>
@@ -4014,7 +4344,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="187" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="3">
         <v>3</v>
       </c>
@@ -4031,7 +4361,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="188" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="3">
         <v>1</v>
       </c>
@@ -4048,7 +4378,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="189" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="3">
         <v>1</v>
       </c>
@@ -4065,7 +4395,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="190" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="3">
         <v>2</v>
       </c>
@@ -4082,7 +4412,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="191" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="3">
         <v>2</v>
       </c>
@@ -4099,7 +4429,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="192" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="3">
         <v>1</v>
       </c>
@@ -4116,7 +4446,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="193" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="3">
         <v>1</v>
       </c>
@@ -4133,7 +4463,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="194" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="3">
         <v>2</v>
       </c>
@@ -4150,7 +4480,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="195" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="3">
         <v>2</v>
       </c>
@@ -4167,7 +4497,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="196" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="3">
         <v>3</v>
       </c>
@@ -4184,7 +4514,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="197" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="3">
         <v>3</v>
       </c>
@@ -4201,7 +4531,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="198" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="3">
         <v>1</v>
       </c>
@@ -4218,7 +4548,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="199" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="3">
         <v>1</v>
       </c>
@@ -4235,7 +4565,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="200" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="3">
         <v>2</v>
       </c>
@@ -4252,7 +4582,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="201" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="3">
         <v>2</v>
       </c>
@@ -4269,7 +4599,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="202" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="3">
         <v>3</v>
       </c>
@@ -4286,7 +4616,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="203" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="3">
         <v>3</v>
       </c>
@@ -4303,7 +4633,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="204" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="3">
         <v>1</v>
       </c>
@@ -4320,7 +4650,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="205" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="3">
         <v>1</v>
       </c>
@@ -4337,7 +4667,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="206" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="3">
         <v>2</v>
       </c>
@@ -4354,7 +4684,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="207" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="3">
         <v>2</v>
       </c>
@@ -4371,7 +4701,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="208" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="3">
         <v>3</v>
       </c>
@@ -4388,7 +4718,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="209" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="3">
         <v>3</v>
       </c>
@@ -4405,7 +4735,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="210" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="3">
         <v>1</v>
       </c>
@@ -4422,7 +4752,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="211" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="3">
         <v>1</v>
       </c>
@@ -4439,7 +4769,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="212" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="3">
         <v>2</v>
       </c>
@@ -4456,7 +4786,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="213" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="3">
         <v>2</v>
       </c>
@@ -4473,7 +4803,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="214" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="3">
         <v>3</v>
       </c>
@@ -4490,7 +4820,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="215" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="3">
         <v>3</v>
       </c>
@@ -4507,7 +4837,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="216" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="3">
         <v>1</v>
       </c>
@@ -4524,7 +4854,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="217" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="3">
         <v>1</v>
       </c>
@@ -4541,7 +4871,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="218" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="3">
         <v>2</v>
       </c>
@@ -4558,7 +4888,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="219" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="3">
         <v>2</v>
       </c>
@@ -4575,7 +4905,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="220" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="3">
         <v>3</v>
       </c>
@@ -4592,7 +4922,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="221" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="3">
         <v>3</v>
       </c>
@@ -4609,7 +4939,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="222" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="3">
         <v>1</v>
       </c>
@@ -4626,7 +4956,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="223" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="3">
         <v>1</v>
       </c>
@@ -4643,7 +4973,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="224" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="3">
         <v>2</v>
       </c>
@@ -4660,7 +4990,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="225" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="3">
         <v>2</v>
       </c>
@@ -4677,7 +5007,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="226" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="3">
         <v>3</v>
       </c>
@@ -4694,7 +5024,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="227" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="3">
         <v>3</v>
       </c>
@@ -4711,7 +5041,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="228" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="3">
         <v>1</v>
       </c>
@@ -4728,7 +5058,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="229" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="3">
         <v>1</v>
       </c>
@@ -4745,7 +5075,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="230" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="3">
         <v>2</v>
       </c>
@@ -4762,7 +5092,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="231" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="3">
         <v>2</v>
       </c>
@@ -4779,7 +5109,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="232" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="3">
         <v>3</v>
       </c>
@@ -4796,7 +5126,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="233" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="3">
         <v>3</v>
       </c>
@@ -4813,7 +5143,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="234" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="4">
         <v>1</v>
       </c>
@@ -4830,7 +5160,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="235" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="4">
         <v>1</v>
       </c>
@@ -4847,7 +5177,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="236" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="4">
         <v>2</v>
       </c>
@@ -4864,7 +5194,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="237" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="4">
         <v>2</v>
       </c>
@@ -4881,7 +5211,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="238" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="4">
         <v>3</v>
       </c>
@@ -4898,7 +5228,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="239" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="4">
         <v>3</v>
       </c>
@@ -4915,7 +5245,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="240" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="4">
         <v>1</v>
       </c>
@@ -4932,7 +5262,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="241" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="4">
         <v>1</v>
       </c>
@@ -4949,7 +5279,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="242" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="4">
         <v>2</v>
       </c>
@@ -4966,7 +5296,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="243" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="4">
         <v>2</v>
       </c>
@@ -4983,7 +5313,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="244" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="4">
         <v>3</v>
       </c>
@@ -5000,7 +5330,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="245" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="4">
         <v>3</v>
       </c>
@@ -5017,7 +5347,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="246" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="4">
         <v>1</v>
       </c>
@@ -5034,7 +5364,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="247" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="4">
         <v>1</v>
       </c>
@@ -5051,7 +5381,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="248" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="4">
         <v>2</v>
       </c>
@@ -5068,7 +5398,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="249" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="4">
         <v>2</v>
       </c>
@@ -5085,7 +5415,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="250" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="4">
         <v>3</v>
       </c>
@@ -5102,7 +5432,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="251" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="4">
         <v>3</v>
       </c>
@@ -5119,7 +5449,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="252" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="4">
         <v>1</v>
       </c>
@@ -5136,7 +5466,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="253" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="4">
         <v>1</v>
       </c>
@@ -5153,7 +5483,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="254" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="4">
         <v>2</v>
       </c>
@@ -5170,7 +5500,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="255" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="4">
         <v>2</v>
       </c>
@@ -5187,7 +5517,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="256" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="4">
         <v>3</v>
       </c>
@@ -5204,7 +5534,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="257" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="4">
         <v>3</v>
       </c>
@@ -5221,7 +5551,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="258" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="4">
         <v>1</v>
       </c>
@@ -5238,7 +5568,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="259" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="4">
         <v>1</v>
       </c>
@@ -5255,7 +5585,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="260" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="4">
         <v>2</v>
       </c>
@@ -5272,7 +5602,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="261" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="4">
         <v>2</v>
       </c>
@@ -5289,7 +5619,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="262" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="4">
         <v>3</v>
       </c>
@@ -5306,7 +5636,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="263" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="4">
         <v>3</v>
       </c>
@@ -5323,7 +5653,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="264" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="4">
         <v>1</v>
       </c>
@@ -5340,7 +5670,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="265" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="4">
         <v>1</v>
       </c>
@@ -5357,7 +5687,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="266" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="4">
         <v>2</v>
       </c>
@@ -5374,7 +5704,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="267" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="4">
         <v>2</v>
       </c>
@@ -5391,7 +5721,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="268" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="4">
         <v>3</v>
       </c>
@@ -5408,7 +5738,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="269" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="4">
         <v>3</v>
       </c>
@@ -5425,7 +5755,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="270" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="4">
         <v>1</v>
       </c>
@@ -5442,7 +5772,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="271" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="4">
         <v>1</v>
       </c>
@@ -5459,7 +5789,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="272" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="4">
         <v>2</v>
       </c>
@@ -5476,7 +5806,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="273" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="4">
         <v>2</v>
       </c>
@@ -5493,7 +5823,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="274" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="4">
         <v>3</v>
       </c>
@@ -5510,7 +5840,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="275" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="4">
         <v>3</v>
       </c>
@@ -5527,7 +5857,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="276" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="4">
         <v>1</v>
       </c>
@@ -5544,7 +5874,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="277" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="4">
         <v>1</v>
       </c>
@@ -5561,7 +5891,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="278" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="4">
         <v>2</v>
       </c>
@@ -5578,7 +5908,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="279" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="4">
         <v>2</v>
       </c>
@@ -5595,7 +5925,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="280" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="4">
         <v>3</v>
       </c>
@@ -5612,7 +5942,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="281" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="4">
         <v>3</v>
       </c>
@@ -5629,7 +5959,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="282" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="4">
         <v>1</v>
       </c>
@@ -5646,7 +5976,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="283" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="4">
         <v>1</v>
       </c>
@@ -5663,7 +5993,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="284" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="4">
         <v>2</v>
       </c>
@@ -5680,7 +6010,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="285" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="4">
         <v>2</v>
       </c>
@@ -5697,7 +6027,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="286" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="4">
         <v>3</v>
       </c>
@@ -5714,7 +6044,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="287" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="4">
         <v>3</v>
       </c>
@@ -5731,7 +6061,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="288" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="4">
         <v>1</v>
       </c>
@@ -5748,7 +6078,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="289" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="4">
         <v>1</v>
       </c>
@@ -5765,7 +6095,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="290" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="4">
         <v>1</v>
       </c>
@@ -5782,7 +6112,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="291" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="4">
         <v>1</v>
       </c>
@@ -5799,7 +6129,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="292" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="4">
         <v>2</v>
       </c>
@@ -5816,7 +6146,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="293" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="4">
         <v>2</v>
       </c>
@@ -5833,7 +6163,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="294" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="4">
         <v>3</v>
       </c>
@@ -5850,7 +6180,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="295" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="4">
         <v>3</v>
       </c>
@@ -5867,7 +6197,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="296" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="4">
         <v>1</v>
       </c>
@@ -5884,7 +6214,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="297" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="4">
         <v>1</v>
       </c>
@@ -5901,7 +6231,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="298" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="4">
         <v>2</v>
       </c>
@@ -5918,7 +6248,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="299" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="4">
         <v>2</v>
       </c>
@@ -5935,7 +6265,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="300" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="4">
         <v>3</v>
       </c>
@@ -5952,7 +6282,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="301" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B301" s="4">
         <v>3</v>
       </c>
@@ -5969,7 +6299,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="302" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B302" s="4">
         <v>1</v>
       </c>
@@ -5986,7 +6316,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="303" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="4">
         <v>1</v>
       </c>
@@ -6003,7 +6333,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="304" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B304" s="4">
         <v>2</v>
       </c>
@@ -6020,7 +6350,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="4">
         <v>2</v>
       </c>
@@ -6037,7 +6367,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B306" s="4">
         <v>3</v>
       </c>
@@ -6054,7 +6384,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B307" s="4">
         <v>3</v>
       </c>
@@ -6071,7 +6401,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>92</v>
       </c>
@@ -6091,7 +6421,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>92</v>
       </c>
@@ -6111,7 +6441,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>92</v>
       </c>
@@ -6131,7 +6461,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>92</v>
       </c>
@@ -6151,7 +6481,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>92</v>
       </c>
@@ -6177,7 +6507,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>92</v>
       </c>
@@ -6197,7 +6527,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="4">
         <v>1</v>
       </c>
@@ -6214,7 +6544,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B315" s="4">
         <v>1</v>
       </c>
@@ -6231,7 +6561,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B316" s="4">
         <v>2</v>
       </c>
@@ -6248,7 +6578,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B317" s="4">
         <v>2</v>
       </c>
@@ -6265,7 +6595,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B318" s="4">
         <v>3</v>
       </c>
@@ -6282,7 +6612,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="4">
         <v>3</v>
       </c>
@@ -6299,7 +6629,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="4">
         <v>1</v>
       </c>
@@ -6316,7 +6646,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="321" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B321" s="4">
         <v>1</v>
       </c>
@@ -6333,7 +6663,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="322" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B322" s="4">
         <v>2</v>
       </c>
@@ -6350,7 +6680,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="323" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B323" s="4">
         <v>2</v>
       </c>
@@ -6367,7 +6697,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="324" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="4">
         <v>3</v>
       </c>
@@ -6384,7 +6714,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="325" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="4">
         <v>3</v>
       </c>
@@ -6401,7 +6731,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="326" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="7">
         <v>1</v>
       </c>
@@ -6418,7 +6748,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="327" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B327" s="7">
         <v>1</v>
       </c>
@@ -6435,7 +6765,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="328" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B328" s="7">
         <v>2</v>
       </c>
@@ -6452,7 +6782,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="329" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="7">
         <v>2</v>
       </c>
@@ -6469,7 +6799,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="330" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B330" s="7">
         <v>3</v>
       </c>
@@ -6486,7 +6816,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="331" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B331" s="7">
         <v>3</v>
       </c>
@@ -6503,7 +6833,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="332" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>105</v>
+      </c>
       <c r="B332" s="7">
         <v>1</v>
       </c>
@@ -6520,7 +6853,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="333" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>105</v>
+      </c>
       <c r="B333" s="7">
         <v>1</v>
       </c>
@@ -6537,7 +6873,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="334" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>105</v>
+      </c>
       <c r="B334" s="7">
         <v>2</v>
       </c>
@@ -6554,7 +6893,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="335" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>105</v>
+      </c>
       <c r="B335" s="7">
         <v>2</v>
       </c>
@@ -6571,7 +6913,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="336" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>105</v>
+      </c>
       <c r="B336" s="7">
         <v>3</v>
       </c>
@@ -6588,7 +6933,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>105</v>
+      </c>
       <c r="B337" s="7">
         <v>3</v>
       </c>
@@ -6605,7 +6953,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="7">
         <v>1</v>
       </c>
@@ -6622,7 +6970,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="7">
         <v>1</v>
       </c>
@@ -6639,7 +6987,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="7">
         <v>2</v>
       </c>
@@ -6656,7 +7004,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="7">
         <v>2</v>
       </c>
@@ -6673,7 +7021,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="7">
         <v>3</v>
       </c>
@@ -6690,7 +7038,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B343" s="7">
         <v>3</v>
       </c>
@@ -6707,7 +7055,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>98</v>
       </c>
@@ -6727,7 +7075,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>98</v>
       </c>
@@ -6747,7 +7095,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>98</v>
       </c>
@@ -6767,7 +7115,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>98</v>
       </c>
@@ -6787,7 +7135,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>98</v>
       </c>
@@ -6807,7 +7155,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>98</v>
       </c>
@@ -6827,124 +7175,1834 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>102</v>
       </c>
       <c r="B350" s="9">
         <v>1</v>
       </c>
-      <c r="C350" s="14" t="s">
+      <c r="C350" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D350" s="15" t="s">
+      <c r="D350" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E350" s="15" t="s">
+      <c r="E350" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F350" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>102</v>
       </c>
       <c r="B351" s="9">
         <v>1</v>
       </c>
-      <c r="C351" s="14" t="s">
+      <c r="C351" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D351" s="15" t="s">
+      <c r="D351" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E351" s="15" t="s">
+      <c r="E351" s="10" t="s">
         <v>97</v>
       </c>
       <c r="F351" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>102</v>
       </c>
       <c r="B352" s="9">
         <v>2</v>
       </c>
-      <c r="C352" s="14" t="s">
+      <c r="C352" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D352" s="15" t="s">
+      <c r="D352" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E352" s="15" t="s">
+      <c r="E352" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>102</v>
       </c>
       <c r="B353" s="9">
         <v>2</v>
       </c>
-      <c r="C353" s="14" t="s">
+      <c r="C353" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D353" s="15" t="s">
+      <c r="D353" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E353" s="15" t="s">
+      <c r="E353" s="10" t="s">
         <v>97</v>
       </c>
       <c r="F353" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>102</v>
       </c>
       <c r="B354" s="9">
         <v>3</v>
       </c>
-      <c r="C354" s="14" t="s">
+      <c r="C354" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D354" s="15" t="s">
+      <c r="D354" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E354" s="15" t="s">
+      <c r="E354" s="10" t="s">
         <v>104</v>
       </c>
       <c r="F354" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>102</v>
       </c>
       <c r="B355" s="9">
         <v>3</v>
       </c>
-      <c r="C355" s="14" t="s">
+      <c r="C355" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D355" s="15" t="s">
+      <c r="D355" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E355" s="15" t="s">
+      <c r="E355" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>106</v>
+      </c>
+      <c r="B356" s="9">
+        <v>1</v>
+      </c>
+      <c r="C356" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D356" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E356" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F356" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>106</v>
+      </c>
+      <c r="B357" s="9">
+        <v>1</v>
+      </c>
+      <c r="C357" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D357" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E357" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F357" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>106</v>
+      </c>
+      <c r="B358" s="9">
+        <v>2</v>
+      </c>
+      <c r="C358" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D358" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E358" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F358" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>106</v>
+      </c>
+      <c r="B359" s="9">
+        <v>2</v>
+      </c>
+      <c r="C359" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D359" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E359" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F359" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>106</v>
+      </c>
+      <c r="B360" s="9">
+        <v>3</v>
+      </c>
+      <c r="C360" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D360" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E360" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F360" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>106</v>
+      </c>
+      <c r="B361" s="9">
+        <v>3</v>
+      </c>
+      <c r="C361" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D361" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E361" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F361" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>180</v>
+      </c>
+      <c r="B362" s="9">
+        <v>1</v>
+      </c>
+      <c r="C362" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D362" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E362" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>180</v>
+      </c>
+      <c r="B363" s="9">
+        <v>1</v>
+      </c>
+      <c r="C363" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D363" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E363" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>180</v>
+      </c>
+      <c r="B364" s="9">
+        <v>2</v>
+      </c>
+      <c r="C364" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D364" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E364" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>180</v>
+      </c>
+      <c r="B365" s="9">
+        <v>2</v>
+      </c>
+      <c r="C365" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D365" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E365" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F365" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>180</v>
+      </c>
+      <c r="B366" s="9">
+        <v>3</v>
+      </c>
+      <c r="C366" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D366" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E366" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F366" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>180</v>
+      </c>
+      <c r="B367" s="9">
+        <v>3</v>
+      </c>
+      <c r="C367" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D367" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E367" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F367" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>166</v>
+      </c>
+      <c r="B368" s="9">
+        <v>1</v>
+      </c>
+      <c r="C368" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D368" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E368" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F368" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>166</v>
+      </c>
+      <c r="B369" s="9">
+        <v>1</v>
+      </c>
+      <c r="C369" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D369" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E369" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F369" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>166</v>
+      </c>
+      <c r="B370" s="9">
+        <v>2</v>
+      </c>
+      <c r="C370" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D370" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E370" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F370" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>166</v>
+      </c>
+      <c r="B371" s="9">
+        <v>2</v>
+      </c>
+      <c r="C371" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D371" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E371" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F371" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>166</v>
+      </c>
+      <c r="B372" s="9">
+        <v>3</v>
+      </c>
+      <c r="C372" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D372" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E372" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F372" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>166</v>
+      </c>
+      <c r="B373" s="9">
+        <v>3</v>
+      </c>
+      <c r="C373" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D373" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E373" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F373" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>166</v>
+      </c>
+      <c r="B374" s="9">
+        <v>4</v>
+      </c>
+      <c r="C374" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D374" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E374" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F374" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>166</v>
+      </c>
+      <c r="B375" s="9">
+        <v>4</v>
+      </c>
+      <c r="C375" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D375" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E375" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F375" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>166</v>
+      </c>
+      <c r="B376" s="9">
+        <v>5</v>
+      </c>
+      <c r="C376" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D376" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E376" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F376" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>166</v>
+      </c>
+      <c r="B377" s="9">
+        <v>5</v>
+      </c>
+      <c r="C377" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D377" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E377" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F377" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B378" s="9">
+        <v>1</v>
+      </c>
+      <c r="C378" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D378" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E378" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F378" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B379" s="9">
+        <v>1</v>
+      </c>
+      <c r="C379" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D379" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E379" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F379" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B380" s="9">
+        <v>2</v>
+      </c>
+      <c r="C380" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D380" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E380" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F380" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B381" s="9">
+        <v>2</v>
+      </c>
+      <c r="C381" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D381" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E381" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F381" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B382" s="9">
+        <v>3</v>
+      </c>
+      <c r="C382" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D382" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E382" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F382" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B383" s="9">
+        <v>3</v>
+      </c>
+      <c r="C383" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D383" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E383" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F383" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B384" s="9">
+        <v>1</v>
+      </c>
+      <c r="C384" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D384" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E384" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F384" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="385" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B385" s="9">
+        <v>1</v>
+      </c>
+      <c r="C385" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D385" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E385" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F385" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="386" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B386" s="9">
+        <v>2</v>
+      </c>
+      <c r="C386" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D386" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E386" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F386" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="387" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B387" s="9">
+        <v>2</v>
+      </c>
+      <c r="C387" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D387" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E387" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F387" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="388" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B388" s="9">
+        <v>3</v>
+      </c>
+      <c r="C388" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D388" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E388" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F388" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="389" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B389" s="9">
+        <v>3</v>
+      </c>
+      <c r="C389" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D389" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E389" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F389" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="390" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B390" s="9">
+        <v>1</v>
+      </c>
+      <c r="C390" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D390" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E390" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F390" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="391" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B391" s="9">
+        <v>1</v>
+      </c>
+      <c r="C391" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D391" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E391" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F391" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="392" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B392" s="9">
+        <v>2</v>
+      </c>
+      <c r="C392" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D392" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E392" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F392" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="393" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B393" s="9">
+        <v>2</v>
+      </c>
+      <c r="C393" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D393" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E393" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F393" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="394" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B394" s="9">
+        <v>3</v>
+      </c>
+      <c r="C394" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D394" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E394" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F394" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="395" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B395" s="9">
+        <v>3</v>
+      </c>
+      <c r="C395" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D395" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E395" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F395" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="396" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B396" s="9">
+        <v>1</v>
+      </c>
+      <c r="C396" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D396" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E396" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F396" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="397" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B397" s="9">
+        <v>1</v>
+      </c>
+      <c r="C397" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D397" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E397" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F397" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="398" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B398" s="9">
+        <v>2</v>
+      </c>
+      <c r="C398" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D398" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E398" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F398" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="399" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B399" s="9">
+        <v>2</v>
+      </c>
+      <c r="C399" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D399" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E399" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F399" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="400" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B400" s="9">
+        <v>3</v>
+      </c>
+      <c r="C400" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D400" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E400" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F400" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="401" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B401" s="9">
+        <v>3</v>
+      </c>
+      <c r="C401" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D401" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E401" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F401" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="402" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B402" s="9">
+        <v>1</v>
+      </c>
+      <c r="C402" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D402" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E402" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F402" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="403" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B403" s="9">
+        <v>1</v>
+      </c>
+      <c r="C403" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D403" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E403" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F403" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="404" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B404" s="9">
+        <v>2</v>
+      </c>
+      <c r="C404" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D404" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E404" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F404" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="405" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B405" s="9">
+        <v>2</v>
+      </c>
+      <c r="C405" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D405" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E405" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F405" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="406" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B406" s="9">
+        <v>3</v>
+      </c>
+      <c r="C406" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D406" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E406" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F406" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="407" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B407" s="9">
+        <v>3</v>
+      </c>
+      <c r="C407" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D407" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E407" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F407" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="408" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B408" s="9">
+        <v>1</v>
+      </c>
+      <c r="C408" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D408" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E408" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F408" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="409" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B409" s="9">
+        <v>1</v>
+      </c>
+      <c r="C409" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D409" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E409" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F409" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="410" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B410" s="9">
+        <v>2</v>
+      </c>
+      <c r="C410" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D410" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E410" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F410" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="411" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B411" s="9">
+        <v>2</v>
+      </c>
+      <c r="C411" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D411" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E411" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F411" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="412" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B412" s="9">
+        <v>3</v>
+      </c>
+      <c r="C412" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D412" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E412" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F412" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="413" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B413" s="9">
+        <v>3</v>
+      </c>
+      <c r="C413" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D413" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E413" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F413" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="414" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B414" s="9">
+        <v>1</v>
+      </c>
+      <c r="C414" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D414" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E414" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F414" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="415" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B415" s="9">
+        <v>1</v>
+      </c>
+      <c r="C415" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D415" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E415" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F415" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="416" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B416" s="9">
+        <v>2</v>
+      </c>
+      <c r="C416" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D416" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E416" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F416" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="417" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B417" s="9">
+        <v>2</v>
+      </c>
+      <c r="C417" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D417" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E417" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F417" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="418" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B418" s="9">
+        <v>3</v>
+      </c>
+      <c r="C418" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D418" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E418" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F418" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="419" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B419" s="9">
+        <v>3</v>
+      </c>
+      <c r="C419" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D419" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E419" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F419" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="420" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B420" s="9">
+        <v>1</v>
+      </c>
+      <c r="C420" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D420" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E420" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F420" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="421" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B421" s="9">
+        <v>1</v>
+      </c>
+      <c r="C421" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D421" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E421" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F421" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="422" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B422" s="9">
+        <v>2</v>
+      </c>
+      <c r="C422" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D422" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E422" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F422" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="423" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B423" s="9">
+        <v>2</v>
+      </c>
+      <c r="C423" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D423" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E423" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F423" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="424" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B424" s="9">
+        <v>3</v>
+      </c>
+      <c r="C424" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D424" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E424" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F424" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="425" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B425" s="9">
+        <v>3</v>
+      </c>
+      <c r="C425" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D425" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E425" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F425" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="426" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B426" s="9">
+        <v>1</v>
+      </c>
+      <c r="C426" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D426" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E426" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="F426" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="427" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B427" s="9">
+        <v>1</v>
+      </c>
+      <c r="C427" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D427" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E427" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="F427" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="428" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B428" s="9">
+        <v>1</v>
+      </c>
+      <c r="C428" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D428" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E428" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="429" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B429" s="9">
+        <v>1</v>
+      </c>
+      <c r="C429" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D429" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E429" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="430" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B430" s="9">
+        <v>2</v>
+      </c>
+      <c r="C430" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D430" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E430" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="431" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B431" s="9">
+        <v>2</v>
+      </c>
+      <c r="C431" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D431" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E431" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="432" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B432" s="9">
+        <v>3</v>
+      </c>
+      <c r="C432" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D432" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E432" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="433" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B433" s="9">
+        <v>3</v>
+      </c>
+      <c r="C433" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D433" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E433" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="434" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B434" s="9">
+        <v>1</v>
+      </c>
+      <c r="C434" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D434" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E434" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="435" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B435" s="9">
+        <v>1</v>
+      </c>
+      <c r="C435" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D435" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E435" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="436" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B436" s="9">
+        <v>2</v>
+      </c>
+      <c r="C436" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D436" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E436" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="437" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B437" s="9">
+        <v>2</v>
+      </c>
+      <c r="C437" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D437" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E437" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="438" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B438" s="9">
+        <v>3</v>
+      </c>
+      <c r="C438" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D438" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E438" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="439" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B439" s="9">
+        <v>3</v>
+      </c>
+      <c r="C439" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D439" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E439" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="440" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B440" s="9">
+        <v>1</v>
+      </c>
+      <c r="C440" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D440" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E440" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="441" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B441" s="9">
+        <v>1</v>
+      </c>
+      <c r="C441" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D441" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E441" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="442" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B442" s="9">
+        <v>2</v>
+      </c>
+      <c r="C442" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D442" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E442" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="443" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B443" s="9">
+        <v>2</v>
+      </c>
+      <c r="C443" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D443" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E443" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="444" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B444" s="9">
+        <v>3</v>
+      </c>
+      <c r="C444" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D444" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E444" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="445" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B445" s="9">
+        <v>3</v>
+      </c>
+      <c r="C445" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D445" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E445" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="446" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B446" s="9">
+        <v>1</v>
+      </c>
+      <c r="C446" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D446" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E446" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="447" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B447" s="9">
+        <v>1</v>
+      </c>
+      <c r="C447" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D447" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E447" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="448" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B448" s="9">
+        <v>2</v>
+      </c>
+      <c r="C448" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D448" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E448" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="449" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B449" s="9">
+        <v>2</v>
+      </c>
+      <c r="C449" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D449" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E449" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="450" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B450" s="9">
+        <v>3</v>
+      </c>
+      <c r="C450" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D450" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E450" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="451" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B451" s="9">
+        <v>3</v>
+      </c>
+      <c r="C451" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D451" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E451" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="452" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B452" s="9">
+        <v>1</v>
+      </c>
+      <c r="C452" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D452" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E452" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="453" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B453" s="9">
+        <v>1</v>
+      </c>
+      <c r="C453" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D453" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E453" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="454" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B454" s="9">
+        <v>2</v>
+      </c>
+      <c r="C454" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D454" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E454" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="455" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B455" s="9">
+        <v>2</v>
+      </c>
+      <c r="C455" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D455" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E455" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="456" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B456" s="9">
+        <v>3</v>
+      </c>
+      <c r="C456" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D456" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E456" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="457" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B457" s="9">
+        <v>3</v>
+      </c>
+      <c r="C457" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D457" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E457" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6952,4 +9010,982 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146E0C42-B794-4CB1-94C2-271AF6AF33B1}">
+  <dimension ref="A1:C116"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>2019</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>2019</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>2019</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>2019</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>2019</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>2019</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>2019</v>
+      </c>
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>2019</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>2019</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>2019</v>
+      </c>
+      <c r="B11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>2019</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>2019</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>2019</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>2019</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>2019</v>
+      </c>
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>2019</v>
+      </c>
+      <c r="B17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>2019</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>2019</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <v>2020</v>
+      </c>
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>2020</v>
+      </c>
+      <c r="B32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="15">
+        <v>2021</v>
+      </c>
+      <c r="B41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
+        <v>2021</v>
+      </c>
+      <c r="B42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
+        <v>2021</v>
+      </c>
+      <c r="B43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
+        <v>2021</v>
+      </c>
+      <c r="B44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="15">
+        <v>2021</v>
+      </c>
+      <c r="B45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="15">
+        <v>2021</v>
+      </c>
+      <c r="B46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
+        <v>2021</v>
+      </c>
+      <c r="B47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
+        <v>2021</v>
+      </c>
+      <c r="B48" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="15">
+        <v>2021</v>
+      </c>
+      <c r="B49" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="15">
+        <v>2021</v>
+      </c>
+      <c r="B50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="15">
+        <v>2021</v>
+      </c>
+      <c r="B51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="15">
+        <v>2022</v>
+      </c>
+      <c r="B62" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="15">
+        <v>2022</v>
+      </c>
+      <c r="B63" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="15">
+        <v>2022</v>
+      </c>
+      <c r="B64" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="15">
+        <v>2022</v>
+      </c>
+      <c r="B65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="15">
+        <v>2022</v>
+      </c>
+      <c r="B66" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="15">
+        <v>2022</v>
+      </c>
+      <c r="B67" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="15">
+        <v>2022</v>
+      </c>
+      <c r="B68" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="15">
+        <v>2022</v>
+      </c>
+      <c r="B69" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="15">
+        <v>2022</v>
+      </c>
+      <c r="B70" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="15">
+        <v>2022</v>
+      </c>
+      <c r="B71" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="15">
+        <v>2022</v>
+      </c>
+      <c r="B72" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="15">
+        <v>2022</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="15">
+        <v>2022</v>
+      </c>
+      <c r="B74" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="15">
+        <v>2022</v>
+      </c>
+      <c r="B75" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="15">
+        <v>2022</v>
+      </c>
+      <c r="B76" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="15">
+        <v>2022</v>
+      </c>
+      <c r="B77" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="15">
+        <v>2022</v>
+      </c>
+      <c r="B78" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B79" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B83" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85" t="s">
+        <v>180</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" t="s">
+        <v>102</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="15">
+        <v>2023</v>
+      </c>
+      <c r="B96" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="15">
+        <v>2023</v>
+      </c>
+      <c r="B97" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="15">
+        <v>2023</v>
+      </c>
+      <c r="B98" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="15">
+        <v>2023</v>
+      </c>
+      <c r="B99" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="15">
+        <v>2023</v>
+      </c>
+      <c r="B100" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="15">
+        <v>2023</v>
+      </c>
+      <c r="B101" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="15">
+        <v>2023</v>
+      </c>
+      <c r="B102" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="15">
+        <v>2023</v>
+      </c>
+      <c r="B103" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="15">
+        <v>2023</v>
+      </c>
+      <c r="B104" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="15">
+        <v>2023</v>
+      </c>
+      <c r="B105" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="15">
+        <v>2023</v>
+      </c>
+      <c r="B106" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="15">
+        <v>2023</v>
+      </c>
+      <c r="B107" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="15">
+        <v>2023</v>
+      </c>
+      <c r="B108" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="15">
+        <v>2023</v>
+      </c>
+      <c r="B109" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="15">
+        <v>2023</v>
+      </c>
+      <c r="B110" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="15">
+        <v>2023</v>
+      </c>
+      <c r="B111" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="15">
+        <v>2023</v>
+      </c>
+      <c r="B112" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="15">
+        <v>2023</v>
+      </c>
+      <c r="B113" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="15">
+        <v>2023</v>
+      </c>
+      <c r="B114" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="15">
+        <v>2023</v>
+      </c>
+      <c r="B115" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="15">
+        <v>2023</v>
+      </c>
+      <c r="B116" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C116" xr:uid="{146E0C42-B794-4CB1-94C2-271AF6AF33B1}"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>